--- a/実況CSV/Comment.xlsx
+++ b/実況CSV/Comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\実況CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582CCABD-84D2-4B25-8AB9-F68C997FBCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8587B-EA37-46DB-9926-0CF98D224E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -66,12 +66,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>同じく放送委員の
-半田がお送りします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SoundWave'/Game/Voice/解説/01.01'</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[改行コード]</t>
+    <rPh sb="1" eb="3">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じく放送委員の半田がお送りします。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -399,14 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.8984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -426,101 +447,120 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="36">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/実況CSV/Comment.xlsx
+++ b/実況CSV/Comment.xlsx
@@ -1,127 +1,656 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\実況CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8587B-EA37-46DB-9926-0CF98D224E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{810BB84F-8AA2-4FD4-AA8D-B799AB70CF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10008" yWindow="2832" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comment" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SoundPath</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ欄</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>[改行コード]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>この行はいじらない</t>
+  </si>
+  <si>
+    <t>1_LC</t>
   </si>
   <si>
     <t>実</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>さぁ、始まりました。第8回目椅ースポーツのお時間です。
 実況解説は放送委員の高野と↑</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SoundWave'/Game/Voice/実況/01.01'</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/01.01'</t>
+  </si>
+  <si>
+    <t>ゲーム開始時、マップをカメラで眺めている時。</t>
+  </si>
+  <si>
+    <t>1_C</t>
   </si>
   <si>
     <t>解</t>
-    <rPh sb="0" eb="1">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SoundWave'/Game/Voice/解説/01.01'</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[改行コード]</t>
-    <rPh sb="1" eb="3">
-      <t>カイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NL</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>同じく放送委員の半田がお送りします。</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/01.01'</t>
+  </si>
+  <si>
+    <t>2_LC</t>
+  </si>
+  <si>
+    <t>さぁ、方向を定めました。
+どうやら中心狙いでしょうか</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/02.02'</t>
+  </si>
+  <si>
+    <t>方向選択で真ん中を選んだ時</t>
+  </si>
+  <si>
+    <t>2_C</t>
+  </si>
+  <si>
+    <t>ストレートに高得点狙いでしょう。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/02.02'</t>
+  </si>
+  <si>
+    <t>3_LC</t>
+  </si>
+  <si>
+    <t>これは、狙いを横にずらしているようですが、何か狙いがあるのでしょうか。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/03.03'</t>
+  </si>
+  <si>
+    <t>方向選択で左右を選んだ時</t>
+  </si>
+  <si>
+    <t>3_C</t>
+  </si>
+  <si>
+    <t>地道に点数を稼ぐつもりでしょう。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/03.03'</t>
+  </si>
+  <si>
+    <t>4_1_LC</t>
+  </si>
+  <si>
+    <t>長めに助走を取って</t>
+  </si>
+  <si>
+    <t>最大パワーの8割以上で投げた時。</t>
+  </si>
+  <si>
+    <t>4_2_LC</t>
+  </si>
+  <si>
+    <t>投げたー！</t>
+  </si>
+  <si>
+    <t>4_3_LC</t>
+  </si>
+  <si>
+    <t>力強い1脚だ。</t>
+  </si>
+  <si>
+    <t>4_C</t>
+  </si>
+  <si>
+    <t>相手を吹き飛ばすつもりでしょう</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/04.04'</t>
+  </si>
+  <si>
+    <t>5_1_LC</t>
+  </si>
+  <si>
+    <t>おっと、これは弱いんじゃないか～？</t>
+  </si>
+  <si>
+    <t>最大パワーの8割未満だった時。</t>
+  </si>
+  <si>
+    <t>5_2_LC</t>
+  </si>
+  <si>
+    <t>ここで力を弱く選択したようです</t>
+  </si>
+  <si>
+    <t>5_C</t>
+  </si>
+  <si>
+    <t>ハウスにピタリと止まることに期待です。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/05.05'</t>
+  </si>
+  <si>
+    <t>6_LC</t>
+  </si>
+  <si>
+    <t>ハウスにインしたー。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/06.06'</t>
+  </si>
+  <si>
+    <t>椅子がハウス内で止まった時。</t>
+  </si>
+  <si>
+    <t>6_1_C</t>
+  </si>
+  <si>
+    <t>素晴らしい</t>
+  </si>
+  <si>
+    <t>6_2_C</t>
+  </si>
+  <si>
+    <t>コントロールです。</t>
+  </si>
+  <si>
+    <t>7_LC</t>
+  </si>
+  <si>
+    <t>やってしまった～...これはアウトだー。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/07.07'</t>
+  </si>
+  <si>
+    <t>アウトゾーンに止まった時。</t>
+  </si>
+  <si>
+    <t>7_1_C</t>
+  </si>
+  <si>
+    <t>やってしまいましたね～</t>
+  </si>
+  <si>
+    <t>7_2_C</t>
+  </si>
+  <si>
+    <t>厳しい戦いになりそうですね</t>
+  </si>
+  <si>
+    <t>8_LC</t>
+  </si>
+  <si>
+    <t>おっと、ここでアクシデントが発生しました！女子がコースに入ってきます。
+あーっと！転んでしまったー。床が水浸しだー。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/08.08'</t>
+  </si>
+  <si>
+    <t>イベント１で女子が廊下に侵入した時。</t>
+  </si>
+  <si>
+    <t>8_C</t>
+  </si>
+  <si>
+    <t>水の上はスピンがやりにくそうですね。</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/08.08'</t>
+  </si>
+  <si>
+    <t>9_LC</t>
+  </si>
+  <si>
+    <t>先ほどの床を透かさず男子が拭きに来ました。女子に優しい男子はモテます！</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/09.09'</t>
+  </si>
+  <si>
+    <t>イベント２で男子が廊下に侵入した時。</t>
+  </si>
+  <si>
+    <t>9_C</t>
+  </si>
+  <si>
+    <t>磨かれた床は余計に滑りそうですね。私も拭きに参加したいです！</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/09.09'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/06_01.06_01'</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/06_02.06_02'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/07_01.07_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/Commentary/07_02.07_02'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/04_01.04_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/04_02.04_02'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/04_03.04_03'</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/05_01.05_01'</t>
+  </si>
+  <si>
+    <t>SoundWave'/Game/Voice/LiveCommnentary/05_02.05_02'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -129,18 +658,604 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +1271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +1287,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -184,7 +1299,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -201,7 +1316,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -231,12 +1346,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -266,6 +1398,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,154 +1566,432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="36">
-      <c r="A2" t="s">
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36.6" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="36">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>17</v>
-      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <mergeCells count="9">
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/実況CSV/Comment.xlsx
+++ b/実況CSV/Comment.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\実況CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{810BB84F-8AA2-4FD4-AA8D-B799AB70CF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDCFA7-98CA-4316-B6D1-E545957D7717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10008" yWindow="2832" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="2832" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>SoundPath</t>
   </si>
   <si>
-    <t>メモ欄</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -296,12 +293,16 @@
   </si>
   <si>
     <t>SoundWave'/Game/Voice/LiveCommnentary/05_02.05_02'</t>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,71 +1144,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,11 +1567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1583,401 +1584,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36.6" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="36.6" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36.6" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="27" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="27" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="23" t="s">
+      <c r="B17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="B18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>82</v>
       </c>
       <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/実況CSV/Comment.xlsx
+++ b/実況CSV/Comment.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creative Cloud Files\PC_Git\school\_Chase\実況CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDCFA7-98CA-4316-B6D1-E545957D7717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B2025F-E8B1-48D1-9B05-D1A3B1829F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2832" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comment" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Comment" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -296,6 +297,334 @@
   </si>
   <si>
     <t>Memo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>実況コメント管理エクセルの使い方</t>
+    <rPh sb="0" eb="2">
+      <t>ジッキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・IDの記入法</t>
+    <rPh sb="4" eb="6">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IDは以下のように記述してください</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最初の数字は大まかに分けた時の分類（どのタイミングで表示されるかで分けた時）の番号</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2番目の数字は、最初の分類に対して複数コメントが有る場合に付けてください　1種類しかない場合は省略してください</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最後の英文字は、実況ならLC （Live Commentary）解説ならC　（Commentary）を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイモジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>発言者の名前・コメントをそれぞれ記入してください。
+コメントは改行も反映されます</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・Name（発言者）・Commentの記入法</t>
+    <rPh sb="6" eb="8">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・SoundPathの記入法</t>
+    <rPh sb="11" eb="13">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>(例)
+1_C
+1_1_LC</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UE4を開いて、コピペしてくることで入力してください。</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>該当するファイルの上で右クリックして、リファレンスをコピーとするとファイルパスを取得できます。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SoundPathにはUE4にインポートした音声データのファイルパスを指定します。</t>
+    <rPh sb="22" eb="24">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>プログラムでは触れないため、自由に使ってください</t>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・注意事項</t>
+    <rPh sb="1" eb="5">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ファイルの拡張子が.xlsxのものと.csvのものがありますが、基本的に.csvのほうは直接変更しないでください。</t>
+    <rPh sb="5" eb="8">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>更新をするのは .xlsx（エクセルファイル）にし、csvファイルは上書きをするだけにしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>通常通り.xlsxファイルを保存した後、名前を付けて保存で.csvファイルも保存してください。</t>
+    <rPh sb="0" eb="3">
+      <t>ツウジョウドオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・Memo（メモ欄）について</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・ファイルの保存について</t>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>・UE4に適用させる</t>
+    <rPh sb="5" eb="7">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UE4のBlueprintフォルダにある CommentTable アセットを選択し、右クリックで再インポートを選択してください</t>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="49" eb="55">
+      <t>サイインポ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -651,7 +980,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -990,6 +1319,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,6 +1673,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1269,6 +1817,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406766</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F88AAD-35F4-46AB-89FA-691EE37E4F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="213360" y="5120640"/>
+          <a:ext cx="7173326" cy="2600688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1AA7C6-122E-4502-ACE7-B0097887E993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144780" y="11506200"/>
+          <a:ext cx="7277100" cy="1508667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>70366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B337A94-4764-413C-A279-1D942B7C806A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="14249401"/>
+          <a:ext cx="1463040" cy="3857505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1567,11 +2252,878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0A3C49-4BFE-4B95-B207-E2C8ADD025EA}">
+  <dimension ref="A1:K69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+    </row>
+    <row r="17" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+    </row>
+    <row r="35" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="36" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+    </row>
+    <row r="38" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="39" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="41"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="41"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="41"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="41"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="41"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="41"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
+    </row>
+    <row r="49" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="50" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="41"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="41"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="41"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="41"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="41"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="39"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="41"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" s="39"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="41"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="39"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="41"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="41"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="41"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65" s="39"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="41"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="41"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67" s="39"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="41"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="41"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
